--- a/auto/new_data/7_上海航運交易所_全球主幹航線到離港與收發獲準班率指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_全球主幹航線到離港與收發獲準班率指數.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,322 +434,299 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>航线</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>到离港服务准班率(%)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>到离港服务准班率(%)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>收发货服务准班率(%)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>收发货服务准班率(%)</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>航線</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>全球主干航线到离港</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>收发货准班率指数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>全球主干航线到离港_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收发货准班率指数_time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>亚洲-欧洲</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>本期</t>
+          <t>26.02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>与上期比涨跌</t>
+          <t>37.39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>本期</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>与上期比涨跌</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>亚洲-欧洲</t>
+          <t>亚洲-地中海</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.39</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>亚洲-地中海</t>
+          <t>亚洲-美西</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>50.72</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>亚洲-美西</t>
+          <t>亚洲-美东</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>29.43</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-4.53</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.72</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-4.99</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>亚洲-美东</t>
+          <t>亚洲-波斯湾</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29.43</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>30.99</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.62</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>亚洲-波斯湾</t>
+          <t>亚洲-澳新</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>31.10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>33.33</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30.99</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>亚洲-澳新</t>
+          <t>亚洲-西非</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31.10</t>
+          <t>32.68</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-4.47</t>
+          <t>38.82</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-9.38</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>亚洲-西非</t>
+          <t>亚洲-南非</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32.68</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>38.82</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>亚洲-南非</t>
+          <t>亚洲-南美</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16.77</t>
+          <t>30.01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>亚洲-南美</t>
+          <t>欧洲-美东</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30.01</t>
+          <t>52.47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>52.63</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>欧洲-美东</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>52.47</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-2.42</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>52.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-3.39</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_全球主幹航線到離港與收發獲準班率指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_全球主幹航線到離港與收發獲準班率指數.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>30.23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>37.39</t>
+          <t>39.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>43.82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>40.61</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>50.72</t>
+          <t>50.41</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29.43</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>36.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>37.86</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30.99</t>
+          <t>39.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31.10</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>37.34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>32.68</t>
+          <t>37.95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38.82</t>
+          <t>37.91</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16.77</t>
+          <t>22.22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>41.73</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30.01</t>
+          <t>27.17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>39.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>52.47</t>
+          <t>35.98</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>52.63</t>
+          <t>40.94</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_全球主幹航線到離港與收發獲準班率指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_全球主幹航線到離港與收發獲準班率指數.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30.23</t>
+          <t>27.36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>39.36</t>
+          <t>41.71</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>24.41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43.82</t>
+          <t>38.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40.61</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>50.41</t>
+          <t>44.87</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>36.63</t>
+          <t>39.89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>42.28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>39.03</t>
+          <t>44.79</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>39.51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37.34</t>
+          <t>48.23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>37.95</t>
+          <t>39.52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>37.91</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.22</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>37.88</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27.17</t>
+          <t>32.19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>39.42</t>
+          <t>42.23</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35.98</t>
+          <t>37.85</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40.94</t>
+          <t>43.69</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
